--- a/biology/Neurosciences/Noyau_caudé/Noyau_caudé.xlsx
+++ b/biology/Neurosciences/Noyau_caudé/Noyau_caudé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noyau_caud%C3%A9</t>
+          <t>Noyau_caudé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le noyau caudé d'origine télencéphalique est l'un des quatre principaux composants des ganglions de la base, les trois autres étant le putamen et le globus pallidus formant tous deux le noyau lenticulaire, et la substance noire. Le striatum est l'ensemble formé par le noyau caudé et le putamen, et représente plutôt une unité fonctionnelle qu'anatomique. Ils sont en effet tous les deux la voie d'entrée dans les ganglions de la base pour les informations venant du cortex.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noyau_caud%C3%A9</t>
+          <t>Noyau_caudé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le noyau caudé et le putamen constituent la zone de « réception » car ils reçoivent la majorité des afférences des ganglions de la base[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noyau caudé et le putamen constituent la zone de « réception » car ils reçoivent la majorité des afférences des ganglions de la base.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Noyau_caud%C3%A9</t>
+          <t>Noyau_caudé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Troubles moteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troubles moteurs sont dus à une perte des neurones dopaminergiques de la SN pars compacta dont les projections ont pour cible le noyau caudé et le putamen[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles moteurs sont dus à une perte des neurones dopaminergiques de la SN pars compacta dont les projections ont pour cible le noyau caudé et le putamen.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Noyau_caud%C3%A9</t>
+          <t>Noyau_caudé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Images additionnelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Diagramme de l'hippocampe
